--- a/US Weather Data .xlsx
+++ b/US Weather Data .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thill\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d15b4abf23fe59de/Desktop/Analysis _projects/Project-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9379A069-4450-4E22-A0AD-3E79DD551233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9379A069-4450-4E22-A0AD-3E79DD551233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3DEB4A7-F5D7-46B0-AF2D-6095592A076F}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1650" windowWidth="29040" windowHeight="15840" activeTab="11"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="7905" windowWidth="21600" windowHeight="11055" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Average Weather All Year" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="September" sheetId="10" r:id="rId10"/>
     <sheet name="October" sheetId="11" r:id="rId11"/>
     <sheet name="November " sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -246,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1080,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2093,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3106,7 +3107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,10 +4120,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -5131,8 +5132,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227A5A3B-2891-417A-BA91-762F24B03A02}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6145,7 +6158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7158,10 +7171,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -8171,10 +8184,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -9184,7 +9197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10197,7 +10210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11210,7 +11223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12223,10 +12236,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
